--- a/results/100/optimal_result.xlsx
+++ b/results/100/optimal_result.xlsx
@@ -16159,56 +16159,56 @@
       <c r="G2" t="n">
         <v>-1</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1</v>
       </c>
       <c r="Y2" t="n">
         <v>-1</v>
@@ -16341,22 +16341,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>209.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>257.3935778726017</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>257.3935778726</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>260.2128442548689</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>225.1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -16371,13 +16371,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>283.7</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
